--- a/datos/Atributos_ModeladoProcesos_V4_1.xlsx
+++ b/datos/Atributos_ModeladoProcesos_V4_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://365inegi.sharepoint.com/sites/dgiai/100_DGG_DGIAII/150_DAA_DGAI/Documentos compartidos/Lago de Datos/Proyecto de investigación 2024/proyinvld/datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{937DE1AF-7E68-4F0E-9A71-5FBD8C2B06DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{090701BC-A9A7-4049-84D2-CB48EB7B5CDA}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{937DE1AF-7E68-4F0E-9A71-5FBD8C2B06DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A795D47C-B31F-438C-BB42-37C6EF64D974}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{140665AB-6F5E-4BC9-ACE0-117D310E2984}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="Atributos" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Atributos!$A$1:$D$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Atributos!$A$1:$D$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Atributos!$A$1:$D$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Atributos!$A$1:$D$20</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Atributos!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>Atributo</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Clave RBDyRIE</t>
   </si>
   <si>
-    <t>Valor</t>
-  </si>
-  <si>
     <t xml:space="preserve">Clave de identificación del conjunto o repositorio de datos </t>
   </si>
   <si>
@@ -249,6 +246,21 @@
   </si>
   <si>
     <t>Referencia PTracking</t>
+  </si>
+  <si>
+    <t>Estatus</t>
+  </si>
+  <si>
+    <t>Estatus del conjunto de datos (e.g., preliminar, revisado, definitivo)</t>
+  </si>
+  <si>
+    <t>Dataset_Status</t>
+  </si>
+  <si>
+    <t>Validado</t>
+  </si>
+  <si>
+    <t>Valor (ejemplo)</t>
   </si>
 </sst>
 </file>
@@ -663,11 +675,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E38D06E7-EC4D-45E0-AA06-1A5A821CCABC}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,13 +696,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -698,13 +710,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -712,234 +724,248 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="D7" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="D8" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="D10" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="C11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="D11" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="C12" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="D12" s="9"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="C13" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="D13" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="7" t="s">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="7" t="s">
+      <c r="C16" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="D16" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="7" t="s">
+    </row>
+    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="7" t="s">
+      <c r="C17" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="7" t="s">
+      <c r="C18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="7"/>
+      <c r="C20" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
